--- a/Burndown-chart-excel-france-2.xlsx
+++ b/Burndown-chart-excel-france-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Bureau\PIDEV-3A29-dynamic-developers\la validation soft skills\Vlidation GL Sprint 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive\Bureau\Stage-Dev-Web-4-eme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63E4263-7F1A-4592-AC98-3C3854BD251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0F1F4B-60A3-4045-8999-DB5198C849D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Choisissez un logiciel spécialisé en gestion de projet en cliquant ici</t>
   </si>
@@ -57,6 +57,24 @@
   </si>
   <si>
     <t>Heures réelles</t>
+  </si>
+  <si>
+    <t>Mise en place de l'environnement De Travail</t>
+  </si>
+  <si>
+    <t>Recherche du template idéale</t>
+  </si>
+  <si>
+    <t>Personnaliser la template choisie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérification des bugs et amélioration du designe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimisation du code </t>
+  </si>
+  <si>
+    <t>présentation du site au Superviseur</t>
   </si>
 </sst>
 </file>
@@ -197,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -228,6 +246,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,7 +684,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr rtl="0">
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
@@ -721,6 +740,1252 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2400"/>
+              <a:t>les Taches Par Heure</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.406629703701E-2"/>
+          <c:y val="0.10684049829712475"/>
+          <c:w val="0.92888536629644503"/>
+          <c:h val="0.76279647344129176"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001C-17C1-430F-B741-0D0AC6C8F3E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="7"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-17C1-430F-B741-0D0AC6C8F3E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-17C1-430F-B741-0D0AC6C8F3E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="10"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-17C1-430F-B741-0D0AC6C8F3E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="7"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001E-17C1-430F-B741-0D0AC6C8F3E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:explosion val="7"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-17C1-430F-B741-0D0AC6C8F3E8}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="95000"/>
+                      <a:alpha val="54000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burn-up chart'!$C$86:$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Heures idéales</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mise en place de l'environnement De Travail</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Recherche du template idéale</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Personnaliser la template choisie</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Vérification des bugs et amélioration du designe </c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Optimisation du code </c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>présentation du site au Superviseur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn-up chart'!$D$86:$D$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17C1-430F-B741-0D0AC6C8F3E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0"/>
+          <c:y val="0.87573762156287638"/>
+          <c:w val="1"/>
+          <c:h val="0.11394684494940921"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="1" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="268">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -754,6 +2019,42 @@
     </xdr:graphicFrame>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>336176</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>180414</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F949E9AC-B127-65DB-9176-BBF27659C46F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -958,10 +2259,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA44"/>
+  <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -972,16 +2273,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -1020,16 +2321,16 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:27" ht="45.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1039,24 +2340,24 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" spans="1:27" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
@@ -1085,7 +2386,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>1</v>
       </c>
       <c r="B7" s="9">
@@ -1111,7 +2412,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="9">
         <v>2</v>
       </c>
@@ -1135,7 +2436,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="9">
         <v>3</v>
       </c>
@@ -1159,7 +2460,7 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="9">
         <v>4</v>
       </c>
@@ -1183,7 +2484,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="9">
         <v>5</v>
       </c>
@@ -1207,7 +2508,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="9">
         <v>6</v>
       </c>
@@ -1231,7 +2532,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="9">
         <v>7</v>
       </c>
@@ -1255,7 +2556,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="9">
         <v>8</v>
       </c>
@@ -1334,204 +2635,204 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D38" s="13" t="s">
@@ -1588,6 +2889,94 @@
       <c r="E44" s="9">
         <v>0</v>
       </c>
+    </row>
+    <row r="77" spans="5:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="14"/>
+    </row>
+    <row r="82" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="14"/>
+    </row>
+    <row r="85" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+    </row>
+    <row r="86" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
+      <c r="C86" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="14"/>
+    </row>
+    <row r="87" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
+      <c r="C87" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="9">
+        <v>6</v>
+      </c>
+      <c r="E87" s="14"/>
+    </row>
+    <row r="88" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="14"/>
+      <c r="C88" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="9">
+        <v>13</v>
+      </c>
+      <c r="E88" s="14"/>
+    </row>
+    <row r="89" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="14"/>
+      <c r="C89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="9">
+        <v>12</v>
+      </c>
+      <c r="E89" s="14"/>
+    </row>
+    <row r="90" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="14"/>
+      <c r="C90" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="9">
+        <v>20</v>
+      </c>
+      <c r="E90" s="14"/>
+    </row>
+    <row r="91" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="14"/>
+      <c r="C91" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="9">
+        <v>15</v>
+      </c>
+      <c r="E91" s="14"/>
+    </row>
+    <row r="92" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="14"/>
+      <c r="C92" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92" s="9">
+        <v>4</v>
+      </c>
+      <c r="E92" s="14"/>
+    </row>
+    <row r="93" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
